--- a/A班_ブラッシュアップ予定.xlsx
+++ b/A班_ブラッシュアップ予定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>作業内容</t>
     <rPh sb="0" eb="4">
@@ -219,6 +219,17 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇（仮）</t>
+    <rPh sb="2" eb="3">
+      <t>カリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -573,7 +584,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -610,6 +621,9 @@
       <c r="C2" s="1">
         <v>45672</v>
       </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
@@ -624,6 +638,9 @@
       <c r="C3" s="1">
         <v>45672</v>
       </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
@@ -684,6 +701,9 @@
       </c>
       <c r="C10" s="1">
         <v>45667</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -716,15 +736,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="84964303-3709-44bc-a339-31eaf6e0f612" xsi:nil="true"/>
@@ -733,6 +744,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -965,14 +985,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7DC7E3E-A58B-45A5-B4E0-15122BE2F73D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B288275-C96D-43DB-B9DE-B76138067B83}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -985,6 +997,14 @@
     <ds:schemaRef ds:uri="84964303-3709-44bc-a339-31eaf6e0f612"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7DC7E3E-A58B-45A5-B4E0-15122BE2F73D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/A班_ブラッシュアップ予定.xlsx
+++ b/A班_ブラッシュアップ予定.xlsx
@@ -584,7 +584,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -645,87 +645,87 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
         <v>45672</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>13</v>
+      <c r="A6" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
-        <v>45666</v>
+        <v>45672</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
         <v>45677</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45666</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>45667</v>
+        <v>45666</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1">
-        <v>45677</v>
+        <v>45667</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1">
-        <v>45672</v>
+        <v>45677</v>
       </c>
     </row>
   </sheetData>
@@ -736,6 +736,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="84964303-3709-44bc-a339-31eaf6e0f612" xsi:nil="true"/>
@@ -744,15 +753,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -985,6 +985,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7DC7E3E-A58B-45A5-B4E0-15122BE2F73D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B288275-C96D-43DB-B9DE-B76138067B83}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -997,14 +1005,6 @@
     <ds:schemaRef ds:uri="84964303-3709-44bc-a339-31eaf6e0f612"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7DC7E3E-A58B-45A5-B4E0-15122BE2F73D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/A班_ブラッシュアップ予定.xlsx
+++ b/A班_ブラッシュアップ予定.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>作業内容</t>
     <rPh sb="0" eb="4">
@@ -584,7 +584,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -727,6 +727,9 @@
       <c r="C12" s="1">
         <v>45677</v>
       </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -736,15 +739,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="84964303-3709-44bc-a339-31eaf6e0f612" xsi:nil="true"/>
@@ -753,6 +747,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -985,14 +988,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7DC7E3E-A58B-45A5-B4E0-15122BE2F73D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B288275-C96D-43DB-B9DE-B76138067B83}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1005,6 +1000,14 @@
     <ds:schemaRef ds:uri="84964303-3709-44bc-a339-31eaf6e0f612"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7DC7E3E-A58B-45A5-B4E0-15122BE2F73D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
